--- a/breakout_board_PCB/BreakoutBoardPCB/BreakoutBoardPCB.xlsx
+++ b/breakout_board_PCB/BreakoutBoardPCB/BreakoutBoardPCB.xlsx
@@ -1,44 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Efabless\caravel_board\hardware\caravel-dev-v5-M.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15153\Documents\GitHub\ASIC-GuitarPedal\breakout_board_PCB\BreakoutBoardPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27B43D6-7249-4330-95E2-33E0497517C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3D7694-EE8E-49E5-A7D7-D3B9E8557A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_B0061">BOM!$A$1:$G$11</definedName>
+    <definedName name="_B0061">BOM!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
-  <si>
-    <t>U2, U3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Designator</t>
   </si>
@@ -64,60 +50,12 @@
     <t xml:space="preserve">Note </t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>FT232HQ</t>
-  </si>
-  <si>
     <t>DigiKey</t>
   </si>
   <si>
-    <t>SN74LVC1G125DCKT</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>alternative part</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>MCP1319MT-29LE/OT</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>TAR5S33UTE85LF</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>TAR5S18U</t>
-  </si>
-  <si>
-    <t>1.8v</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>W25Q32JVSSIQ</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>M.2 E connector</t>
-  </si>
-  <si>
-    <t>SparkFun</t>
-  </si>
-  <si>
     <t>D1, D2, D3, D4</t>
   </si>
   <si>
@@ -218,12 +156,6 @@
   </si>
   <si>
     <t>36-5000-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1 </t>
-  </si>
-  <si>
-    <t>SKQGADE010</t>
   </si>
   <si>
     <t>J10</t>
@@ -253,8 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -304,12 +236,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -354,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -378,16 +304,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,355 +581,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="33" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
       <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A2" s="16">
-        <v>1</v>
+      <c r="A2" s="13">
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A3" s="13">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>47</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A4" s="16">
-        <v>3</v>
+      <c r="A4" s="13">
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A5" s="13">
         <v>11</v>
       </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
       <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A6" s="13">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A7" s="13">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8">
         <v>11</v>
       </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="16">
-        <v>7</v>
+      <c r="A8" s="13">
+        <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G8"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A9" s="16">
-        <v>8</v>
+      <c r="A9" s="13">
+        <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="11">
+        <v>150</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G9"/>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A10" s="16">
-        <v>9</v>
+      <c r="A10" s="13">
+        <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G10"/>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="16">
-        <v>10</v>
+      <c r="A11" s="13">
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G11"/>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A12" s="16">
-        <v>11</v>
+      <c r="A12" s="13">
+        <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G12"/>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12"/>
+        <v>49</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="16">
-        <v>12</v>
+      <c r="A13" s="13">
+        <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="8">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="G13"/>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="16">
-        <v>13</v>
+      <c r="A14" s="13">
+        <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="16">
-        <v>14</v>
+      <c r="A15" s="13">
+        <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -1016,236 +954,125 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15"/>
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="16">
-        <v>15</v>
+      <c r="A16" s="13">
+        <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="11">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16"/>
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17" s="8"/>
+      <c r="C17"/>
+      <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
+      <c r="H17"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18" s="8"/>
+      <c r="C18"/>
+      <c r="D18" s="9"/>
+      <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
+      <c r="H18"/>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="A19"/>
+      <c r="B19" s="8"/>
+      <c r="C19"/>
+      <c r="D19" s="10"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
+      <c r="H20"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
+      <c r="H21"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22" s="8"/>
+      <c r="C22"/>
+      <c r="D22" s="9"/>
+      <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="13"/>
+      <c r="H22"/>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A23" s="16">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23" s="8"/>
+      <c r="C23"/>
+      <c r="D23" s="12"/>
+      <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>64</v>
-      </c>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24" s="8"/>
+      <c r="C24"/>
+      <c r="D24" s="12"/>
+      <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>64</v>
-      </c>
+      <c r="H24"/>
+      <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1">
       <c r="A25"/>
       <c r="B25" s="8"/>
       <c r="C25"/>
+      <c r="D25" s="12"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -1255,7 +1082,7 @@
       <c r="A26"/>
       <c r="B26" s="8"/>
       <c r="C26"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="12"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -1265,7 +1092,7 @@
       <c r="A27"/>
       <c r="B27" s="8"/>
       <c r="C27"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -1274,122 +1101,34 @@
     <row r="28" spans="1:9" ht="19.5" customHeight="1">
       <c r="A28"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="11"/>
+      <c r="C28"/>
       <c r="D28" s="9"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A29"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A30"/>
-      <c r="B30" s="8"/>
-      <c r="C30"/>
-      <c r="D30" s="9"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A31"/>
-      <c r="B31" s="8"/>
-      <c r="C31"/>
-      <c r="D31" s="12"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A32"/>
-      <c r="B32" s="8"/>
-      <c r="C32"/>
-      <c r="D32" s="12"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A33"/>
-      <c r="B33" s="8"/>
-      <c r="C33"/>
-      <c r="D33" s="12"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A34"/>
-      <c r="B34" s="8"/>
-      <c r="C34"/>
-      <c r="D34" s="12"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A35"/>
-      <c r="B35" s="8"/>
-      <c r="C35"/>
-      <c r="D35" s="9"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A36"/>
-      <c r="B36" s="8"/>
-      <c r="C36"/>
-      <c r="D36" s="9"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B18" r:id="rId9"/>
-    <hyperlink ref="B19" r:id="rId10"/>
-    <hyperlink ref="B20" r:id="rId11"/>
-    <hyperlink ref="B21" r:id="rId12"/>
-    <hyperlink ref="B4" r:id="rId13"/>
-    <hyperlink ref="B5" r:id="rId14"/>
-    <hyperlink ref="B10" r:id="rId15"/>
-    <hyperlink ref="B11" r:id="rId16"/>
-    <hyperlink ref="B8" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="B2" r:id="rId20" display="https://www.digikey.com/en/products/detail/ftdi-future-technology-devices-international-ltd/FT232HQ-REEL/2614626"/>
-    <hyperlink ref="B6" r:id="rId21" display="https://www.digikey.com/en/products/detail/toshiba-semiconductor-and-storage/TAR5S18U-TE85L-F/10379931"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
